--- a/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO_REC30.xlsx
+++ b/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO_REC30.xlsx
@@ -686,7 +686,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,6 +730,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,7 +1239,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1500,6 +1506,24 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -2448,7 +2472,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2643,79 +2667,80 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="12" customFormat="1" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="str">
+      <c r="A10" s="102" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="22" t="str">
+      <c r="C10" s="104" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F13</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="14" t="str">
+      <c r="F10" s="105" t="str">
         <f t="shared" ref="F10:F11" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_01_REC30_IMG01.jpg</v>
       </c>
-      <c r="G10" s="14" t="str">
+      <c r="G10" s="105" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H10" s="14" t="str">
+      <c r="H10" s="105" t="str">
         <f t="shared" ref="H10:H11" si="1">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
-      <c r="I10" s="14" t="str">
+      <c r="I10" s="105" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="69" t="s">
+      <c r="J10" s="105"/>
+      <c r="K10" s="106" t="s">
         <v>151</v>
       </c>
+      <c r="L10" s="107"/>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="22" t="str">
+      <c r="C11" s="104" t="str">
         <f t="shared" ref="C11" si="2">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F13</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="14" t="str">
+      <c r="F11" s="105" t="str">
         <f t="shared" si="0"/>
         <v>MA_11_01_REC30_IMG02.jpg</v>
       </c>
-      <c r="G11" s="14" t="str">
+      <c r="G11" s="105" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
-      <c r="H11" s="14" t="str">
+      <c r="H11" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I11" s="14" t="str">
+      <c r="I11" s="105" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="69" t="s">
+      <c r="J11" s="105"/>
+      <c r="K11" s="106" t="s">
         <v>152</v>
       </c>
     </row>
